--- a/金門縣所有旅宿統計資料.xlsx
+++ b/金門縣所有旅宿統計資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/Code/SideProj/crawler-TW-hotels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/Code/SideProj/scraper-TW-hotels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352E4618-77D8-774F-B71C-DC0B21782510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93DF1D4-9FD0-DA4F-AC34-0D99F78DA159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金沙鎮" sheetId="1" r:id="rId1"/>
@@ -2992,6 +2992,18 @@
     <t>http://http:/ / oldhousekinmen.pixnet.net</t>
   </si>
   <si>
+    <t xml:space="preserve">微醺 </t>
+  </si>
+  <si>
+    <t>893金門縣金城鎮古城里6鄰金門城68之3號</t>
+  </si>
+  <si>
+    <t>0900-768008</t>
+  </si>
+  <si>
+    <t>kmtipsyhotel@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">浯江大飯店 </t>
   </si>
   <si>
@@ -3515,18 +3527,6 @@
   </si>
   <si>
     <t>http://e118.myweb.hinet.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微醺 </t>
-  </si>
-  <si>
-    <t>893金門縣金城鎮古城里6鄰金門城68之3號</t>
-  </si>
-  <si>
-    <t>0900-768008</t>
-  </si>
-  <si>
-    <t>kmtipsyhotel@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">珠山大院 </t>
@@ -5140,7 +5140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -10826,36 +10826,36 @@
         <v>991</v>
       </c>
       <c r="E3" s="2">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>992</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>993</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C4" t="s">
         <v>994</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>995</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
         <v>996</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -10869,36 +10869,36 @@
         <v>1000</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>1001</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1002</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>1003</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C6" t="s">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>1005</v>
       </c>
-      <c r="C6" t="s">
-        <v>984</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>1006</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>267</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>1007</v>
@@ -10912,19 +10912,19 @@
         <v>1009</v>
       </c>
       <c r="C7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D7" t="s">
         <v>1010</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -10944,7 +10944,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>1016</v>
+        <v>232</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
@@ -10952,298 +10952,298 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" t="s">
         <v>1017</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1018</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1019</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
         <v>1020</v>
       </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>1021</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B10" t="s">
         <v>1022</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1023</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1024</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B11" t="s">
         <v>1027</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1028</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1029</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>1033</v>
+        <v>390</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1034</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B13" t="s">
         <v>1035</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1036</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>1037</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C14" t="s">
         <v>1041</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>1042</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" s="2">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>1043</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B15" t="s">
         <v>1046</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1047</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1048</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C16" t="s">
         <v>1052</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>1053</v>
       </c>
-      <c r="C16" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1011</v>
-      </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>1054</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B17" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C17" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
       <c r="D17" t="s">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>1058</v>
+        <v>263</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1059</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C18" t="s">
         <v>1060</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>1061</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>1062</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" s="3" t="s">
         <v>1063</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C19" t="s">
         <v>1066</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>1067</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>1068</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B20" t="s">
         <v>1071</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1072</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1073</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>1074</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
       <c r="A21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B21" t="s">
         <v>1076</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1077</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1078</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>808</v>
+        <v>1079</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
@@ -11251,94 +11251,94 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B22" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C22" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D22" t="s">
-        <v>1082</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>869</v>
+        <v>808</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1083</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15">
       <c r="A23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B23" t="s">
         <v>1084</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1085</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>1086</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>869</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>578</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B24" t="s">
         <v>1089</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1090</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1091</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1092</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>1093</v>
+        <v>578</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C25" t="s">
         <v>1095</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>1096</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>1097</v>
       </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
@@ -11352,125 +11352,125 @@
         <v>1101</v>
       </c>
       <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
         <v>1102</v>
       </c>
-      <c r="E26" s="2">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>1103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
       <c r="A27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B27" t="s">
         <v>1104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1105</v>
       </c>
-      <c r="C27" t="s">
-        <v>984</v>
-      </c>
       <c r="D27" t="s">
-        <v>1006</v>
+        <v>1106</v>
       </c>
       <c r="E27" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>1106</v>
+        <v>118</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1007</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B28" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C28" t="s">
-        <v>1109</v>
+        <v>984</v>
       </c>
       <c r="D28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
         <v>1110</v>
       </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1111</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>1112</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C29" t="s">
         <v>1113</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>1114</v>
       </c>
-      <c r="C29" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1082</v>
-      </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>1115</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
       <c r="A30" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B30" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C30" t="s">
-        <v>1118</v>
+        <v>1085</v>
       </c>
       <c r="D30" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15">
       <c r="A31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B31" t="s">
         <v>1121</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1122</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1123</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
       <c r="E31" s="2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>1124</v>
@@ -11490,13 +11490,13 @@
         <v>1127</v>
       </c>
       <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
         <v>1128</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -11513,39 +11513,39 @@
         <v>1131</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>1132</v>
       </c>
       <c r="E33" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>1132</v>
+        <v>42</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="A34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B34" t="s">
         <v>1134</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>1135</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
         <v>1136</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -11565,102 +11565,102 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>894</v>
+        <v>306</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>1142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15">
       <c r="A36" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B36" t="s">
         <v>1143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>1144</v>
       </c>
-      <c r="C36" t="s">
-        <v>1136</v>
-      </c>
       <c r="D36" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>578</v>
+        <v>894</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>12</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
       <c r="A37" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B37" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C37" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="D37" t="s">
-        <v>1087</v>
+        <v>1141</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>1147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="A38" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B38" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C38" t="s">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="D38" t="s">
-        <v>1011</v>
+        <v>1091</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>567</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
       <c r="A39" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B39" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C39" t="s">
-        <v>1153</v>
+        <v>1014</v>
       </c>
       <c r="D39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>1154</v>
-      </c>
-      <c r="E39" s="2">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>409</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -11674,62 +11674,62 @@
         <v>1157</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>1158</v>
       </c>
       <c r="E40" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>744</v>
+        <v>409</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>12</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B41" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C41" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D41" t="s">
-        <v>1161</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
       <c r="A42" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B42" t="s">
         <v>1163</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>1164</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>1165</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>761</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>1166</v>
-      </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -12085,10 +12085,10 @@
         <v>1227</v>
       </c>
       <c r="C58" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="D58" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -12430,7 +12430,7 @@
         <v>1290</v>
       </c>
       <c r="C73" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D73" t="s">
         <v>1291</v>
@@ -12663,7 +12663,7 @@
         <v>1324</v>
       </c>
       <c r="D83" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="E83" s="2">
         <v>4</v>
@@ -12936,10 +12936,10 @@
         <v>1370</v>
       </c>
       <c r="C95" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="D95" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="E95" s="2">
         <v>4</v>
@@ -12948,7 +12948,7 @@
         <v>456</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15">
@@ -13074,7 +13074,7 @@
         <v>1389</v>
       </c>
       <c r="C101" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -13212,7 +13212,7 @@
         <v>1412</v>
       </c>
       <c r="C107" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="D107" t="s">
         <v>1413</v>
@@ -13327,10 +13327,10 @@
         <v>1428</v>
       </c>
       <c r="C112" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="D112" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="E112" s="2">
         <v>4</v>
@@ -13339,7 +13339,7 @@
         <v>515</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15">
@@ -13557,10 +13557,10 @@
         <v>1469</v>
       </c>
       <c r="C122" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="D122" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="E122" s="2">
         <v>5</v>
@@ -13569,7 +13569,7 @@
         <v>884</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15">
@@ -13583,7 +13583,7 @@
         <v>1472</v>
       </c>
       <c r="D123" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="E123" s="2">
         <v>2</v>
@@ -13760,46 +13760,46 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="G7" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
     <hyperlink ref="G8" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="G11" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="G16" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="G17" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="G18" r:id="rId12" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="G19" r:id="rId13" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="G20" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="G9" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="G12" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="G17" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
     <hyperlink ref="G21" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="G22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="G24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="G25" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="G26" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="G28" r:id="rId19" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="G29" r:id="rId20" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="G30" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="G22" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="G26" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId19" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId20" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
     <hyperlink ref="G31" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
     <hyperlink ref="G32" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="G34" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="G36" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="G37" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="G38" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="G39" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="G40" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="G41" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="G42" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="G33" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="G35" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="G37" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="G41" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
     <hyperlink ref="G43" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
     <hyperlink ref="G44" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
     <hyperlink ref="G45" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
@@ -14298,7 +14298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
